--- a/2.11.2022_batch 93_SPRINT1_GROUP1/RTM/RTM_V0.1.xlsx
+++ b/2.11.2022_batch 93_SPRINT1_GROUP1/RTM/RTM_V0.1.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Req</t>
   </si>
@@ -47,46 +47,49 @@
     <t>[LSE]/01-1</t>
   </si>
   <si>
-    <t>populatePaths()</t>
-  </si>
-  <si>
-    <t>LSE/Test - 01 , LSE/Test - 02</t>
-  </si>
-  <si>
-    <t>LSE/IT_Test - 01 , LSE/IT_Test - 02</t>
-  </si>
-  <si>
     <t>[LSE]/01-2</t>
   </si>
   <si>
-    <t>textSearch()</t>
-  </si>
-  <si>
-    <t>LSE/Test - 03 , LSE/Test - 04</t>
-  </si>
-  <si>
-    <t>LSE/IT_Test - 03 , LSE/IT_Test - 04</t>
-  </si>
-  <si>
     <t>[LSE]/01-3</t>
   </si>
   <si>
-    <t>fileSearch()</t>
-  </si>
-  <si>
-    <t>LSE/Test - 05 , LSE/Test - 06</t>
-  </si>
-  <si>
     <t>[LSE]/01-4</t>
   </si>
   <si>
-    <t>searchList(), fileSearch()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSE/Test - 07 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSE/IT_Test - 07 </t>
+    <t>MJ01</t>
+  </si>
+  <si>
+    <t>MJ02</t>
+  </si>
+  <si>
+    <t>MJ03</t>
+  </si>
+  <si>
+    <t>Job()</t>
+  </si>
+  <si>
+    <t>Cut(),Bend(),Polish(),Pattern()</t>
+  </si>
+  <si>
+    <t>MJ04</t>
+  </si>
+  <si>
+    <t>MachineScheduler()</t>
+  </si>
+  <si>
+    <t>Testcase-1,2,3,4,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t>Testcase-1,2,3,5,6,7</t>
+  </si>
+  <si>
+    <t>Testcase-1</t>
+  </si>
+  <si>
+    <t>Testcase-2,3,4,5</t>
+  </si>
+  <si>
+    <t>Testcase-7,8,9,10</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -154,12 +157,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,6 +191,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
@@ -475,7 +504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -486,7 +515,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,48 +548,40 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
-        <v>4.3</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -568,19 +589,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -589,22 +610,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b01f1fda-c5de-4c4a-aeaf-89996165eb0d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e6d15cc9-787b-40c8-bed9-024a43939d4e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="b01f1fda-c5de-4c4a-aeaf-89996165eb0d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="e6d15cc9-787b-40c8-bed9-024a43939d4e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -825,21 +836,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b01f1fda-c5de-4c4a-aeaf-89996165eb0d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e6d15cc9-787b-40c8-bed9-024a43939d4e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="b01f1fda-c5de-4c4a-aeaf-89996165eb0d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="e6d15cc9-787b-40c8-bed9-024a43939d4e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE18EF17-2054-47D8-BF86-187761025201}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD5ECF-BDC1-47FC-86F7-8061971B0019}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b01f1fda-c5de-4c4a-aeaf-89996165eb0d"/>
-    <ds:schemaRef ds:uri="e6d15cc9-787b-40c8-bed9-024a43939d4e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -864,9 +882,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD5ECF-BDC1-47FC-86F7-8061971B0019}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE18EF17-2054-47D8-BF86-187761025201}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b01f1fda-c5de-4c4a-aeaf-89996165eb0d"/>
+    <ds:schemaRef ds:uri="e6d15cc9-787b-40c8-bed9-024a43939d4e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>